--- a/classfiers/bloated/elm/nearmiss/bloated_elm_lin_nearmiss_results.xlsx
+++ b/classfiers/bloated/elm/nearmiss/bloated_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9526627218934911</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9047619047619047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9600000000000001</v>
+        <v>0.761904761904762</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.95703125</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="E5" t="n">
-        <v>0.923076923076923</v>
+        <v>0.9833333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="D6" t="n">
-        <v>0.962962962962963</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9384615384615385</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8719413919413921</v>
+        <v>0.8421245421245421</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9228937728937729</v>
+        <v>0.9092307692307692</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8945641025641026</v>
+        <v>0.8656623117012922</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9561003099464639</v>
+        <v>0.9646541132478633</v>
       </c>
     </row>
   </sheetData>
